--- a/3_Sklad.xlsx
+++ b/3_Sklad.xlsx
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD146"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4521,7 +4521,9 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="13"/>
+      <c r="A145" s="13">
+        <v>123</v>
+      </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="5"/>
@@ -4530,7 +4532,9 @@
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
+      <c r="A146" s="5">
+        <v>568</v>
+      </c>
       <c r="B146" s="8"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>

--- a/3_Sklad.xlsx
+++ b/3_Sklad.xlsx
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4524,17 +4524,25 @@
       <c r="A145" s="13">
         <v>123</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
+      <c r="B145" s="9">
+        <v>7</v>
+      </c>
+      <c r="C145" s="9">
+        <v>7</v>
+      </c>
+      <c r="D145" s="5">
+        <v>7</v>
+      </c>
+      <c r="E145" s="5">
+        <v>7</v>
+      </c>
+      <c r="F145" s="5">
+        <v>7</v>
+      </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
-        <v>568</v>
-      </c>
+      <c r="A146" s="5"/>
       <c r="B146" s="8"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
